--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H2">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I2">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J2">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N2">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O2">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P2">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q2">
-        <v>30.28177322141098</v>
+        <v>33.830591499976</v>
       </c>
       <c r="R2">
-        <v>30.28177322141098</v>
+        <v>135.322365999904</v>
       </c>
       <c r="S2">
-        <v>0.193292795469256</v>
+        <v>0.1673988032623718</v>
       </c>
       <c r="T2">
-        <v>0.193292795469256</v>
+        <v>0.1158649145415513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H3">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I3">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J3">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N3">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P3">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q3">
-        <v>1.08662678529321</v>
+        <v>1.332540817105333</v>
       </c>
       <c r="R3">
-        <v>1.08662678529321</v>
+        <v>7.995244902632</v>
       </c>
       <c r="S3">
-        <v>0.006936090810315795</v>
+        <v>0.006593610344703968</v>
       </c>
       <c r="T3">
-        <v>0.006936090810315795</v>
+        <v>0.006845641225212448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H4">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I4">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J4">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N4">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O4">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P4">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q4">
-        <v>1.756893003683831</v>
+        <v>1.90061509806</v>
       </c>
       <c r="R4">
-        <v>1.756893003683831</v>
+        <v>11.40369058836</v>
       </c>
       <c r="S4">
-        <v>0.01121449386531672</v>
+        <v>0.009404526458778151</v>
       </c>
       <c r="T4">
-        <v>0.01121449386531672</v>
+        <v>0.009764000397979748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H5">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I5">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J5">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N5">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O5">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P5">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q5">
-        <v>1.795059536613822</v>
+        <v>2.315735675585334</v>
       </c>
       <c r="R5">
-        <v>1.795059536613822</v>
+        <v>13.894414053512</v>
       </c>
       <c r="S5">
-        <v>0.01145811618523394</v>
+        <v>0.01145860487734126</v>
       </c>
       <c r="T5">
-        <v>0.01145811618523394</v>
+        <v>0.01189659288780274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H6">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I6">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J6">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N6">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O6">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P6">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q6">
-        <v>27.88582496671771</v>
+        <v>32.07881684785733</v>
       </c>
       <c r="R6">
-        <v>27.88582496671771</v>
+        <v>192.472901087144</v>
       </c>
       <c r="S6">
-        <v>0.1779991225207414</v>
+        <v>0.158730761488694</v>
       </c>
       <c r="T6">
-        <v>0.1779991225207414</v>
+        <v>0.1647980071235394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H7">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I7">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J7">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N7">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O7">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P7">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q7">
-        <v>23.35783527497852</v>
+        <v>27.438872594166</v>
       </c>
       <c r="R7">
-        <v>23.35783527497852</v>
+        <v>109.755490376664</v>
       </c>
       <c r="S7">
-        <v>0.1490963307663468</v>
+        <v>0.135771626550938</v>
       </c>
       <c r="T7">
-        <v>0.1490963307663468</v>
+        <v>0.0939741957583512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H8">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I8">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J8">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N8">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O8">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P8">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q8">
-        <v>8.275834889349554</v>
+        <v>9.458111219763333</v>
       </c>
       <c r="R8">
-        <v>8.275834889349554</v>
+        <v>56.74866731858</v>
       </c>
       <c r="S8">
-        <v>0.05282581204568707</v>
+        <v>0.04680014238923127</v>
       </c>
       <c r="T8">
-        <v>0.05282581204568707</v>
+        <v>0.04858900774184557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H9">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I9">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J9">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N9">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P9">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q9">
-        <v>0.2969688662443619</v>
+        <v>0.3725420896961111</v>
       </c>
       <c r="R9">
-        <v>0.2969688662443619</v>
+        <v>3.352878807265</v>
       </c>
       <c r="S9">
-        <v>0.00189559382483988</v>
+        <v>0.001843393721922846</v>
       </c>
       <c r="T9">
-        <v>0.00189559382483988</v>
+        <v>0.002870782029278244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H10">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I10">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J10">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N10">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O10">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P10">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q10">
-        <v>0.4801487782908408</v>
+        <v>0.531360173925</v>
       </c>
       <c r="R10">
-        <v>0.4801487782908408</v>
+        <v>4.782241565325</v>
       </c>
       <c r="S10">
-        <v>0.00306485683379212</v>
+        <v>0.002629249246688278</v>
       </c>
       <c r="T10">
-        <v>0.00306485683379212</v>
+        <v>0.004094622542173321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H11">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I11">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J11">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N11">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O11">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P11">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q11">
-        <v>0.4905794727722391</v>
+        <v>0.6474165719294444</v>
       </c>
       <c r="R11">
-        <v>0.4905794727722391</v>
+        <v>5.826749147365001</v>
       </c>
       <c r="S11">
-        <v>0.003131437416119764</v>
+        <v>0.003203513581880268</v>
       </c>
       <c r="T11">
-        <v>0.003131437416119764</v>
+        <v>0.004988944636210258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H12">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I12">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J12">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N12">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O12">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P12">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q12">
-        <v>7.621035977334492</v>
+        <v>8.968362777389444</v>
       </c>
       <c r="R12">
-        <v>7.621035977334492</v>
+        <v>80.715264996505</v>
       </c>
       <c r="S12">
-        <v>0.04864613897145218</v>
+        <v>0.04437679418519357</v>
       </c>
       <c r="T12">
-        <v>0.04864613897145218</v>
+        <v>0.06910954602305247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5059064258556349</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H13">
-        <v>0.5059064258556349</v>
+        <v>1.655405</v>
       </c>
       <c r="I13">
-        <v>0.1503110108974608</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J13">
-        <v>0.1503110108974608</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N13">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O13">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P13">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q13">
-        <v>6.38356237248579</v>
+        <v>7.671160840942499</v>
       </c>
       <c r="R13">
-        <v>6.38356237248579</v>
+        <v>46.026965045655</v>
       </c>
       <c r="S13">
-        <v>0.04074717180556975</v>
+        <v>0.03795804588305395</v>
       </c>
       <c r="T13">
-        <v>0.04074717180556975</v>
+        <v>0.03940893533908184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H14">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I14">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J14">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N14">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O14">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P14">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q14">
-        <v>2.390186123962909</v>
+        <v>3.132285693101333</v>
       </c>
       <c r="R14">
-        <v>2.390186123962909</v>
+        <v>18.793714158608</v>
       </c>
       <c r="S14">
-        <v>0.01525689246183085</v>
+        <v>0.01549901592768143</v>
       </c>
       <c r="T14">
-        <v>0.01525689246183085</v>
+        <v>0.0160914425994222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H15">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I15">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J15">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N15">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O15">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P15">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q15">
-        <v>0.08576909433750908</v>
+        <v>0.1233764575737778</v>
       </c>
       <c r="R15">
-        <v>0.08576909433750908</v>
+        <v>1.110388118164</v>
       </c>
       <c r="S15">
-        <v>0.0005474761298866562</v>
+        <v>0.0006104850797130117</v>
       </c>
       <c r="T15">
-        <v>0.0005474761298866562</v>
+        <v>0.0009507299363884684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H16">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I16">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J16">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N16">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O16">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P16">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q16">
-        <v>0.1386742199008167</v>
+        <v>0.17597296458</v>
       </c>
       <c r="R16">
-        <v>0.1386742199008167</v>
+        <v>1.58375668122</v>
       </c>
       <c r="S16">
-        <v>0.0008851769487922421</v>
+        <v>0.000870740426671069</v>
       </c>
       <c r="T16">
-        <v>0.0008851769487922421</v>
+        <v>0.001356034763124791</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H17">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I17">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J17">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N17">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O17">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P17">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q17">
-        <v>0.1416867620244905</v>
+        <v>0.2144078895471111</v>
       </c>
       <c r="R17">
-        <v>0.1416867620244905</v>
+        <v>1.929671005924</v>
       </c>
       <c r="S17">
-        <v>0.0009044064266796887</v>
+        <v>0.00106092215739777</v>
       </c>
       <c r="T17">
-        <v>0.0009044064266796887</v>
+        <v>0.001652211476961998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H18">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I18">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J18">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N18">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O18">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P18">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q18">
-        <v>2.201070307322031</v>
+        <v>2.97009347484311</v>
       </c>
       <c r="R18">
-        <v>2.201070307322031</v>
+        <v>26.73084127358799</v>
       </c>
       <c r="S18">
-        <v>0.01404973974330642</v>
+        <v>0.01469646468541553</v>
       </c>
       <c r="T18">
-        <v>0.01404973974330642</v>
+        <v>0.02288732255679184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.146113417591255</v>
+        <v>0.1827426666666666</v>
       </c>
       <c r="H19">
-        <v>0.146113417591255</v>
+        <v>0.5482279999999999</v>
       </c>
       <c r="I19">
-        <v>0.04341209042102888</v>
+        <v>0.0453083669048127</v>
       </c>
       <c r="J19">
-        <v>0.04341209042102888</v>
+        <v>0.05598897761811442</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.6180693627074</v>
+        <v>13.9020255</v>
       </c>
       <c r="N19">
-        <v>12.6180693627074</v>
+        <v>27.804051</v>
       </c>
       <c r="O19">
-        <v>0.2710857412393206</v>
+        <v>0.2774485042540479</v>
       </c>
       <c r="P19">
-        <v>0.2710857412393206</v>
+        <v>0.2331036721985539</v>
       </c>
       <c r="Q19">
-        <v>1.843669237988687</v>
+        <v>2.540493211937999</v>
       </c>
       <c r="R19">
-        <v>1.843669237988687</v>
+        <v>15.242959271628</v>
       </c>
       <c r="S19">
-        <v>0.01176839871053302</v>
+        <v>0.01257073862793389</v>
       </c>
       <c r="T19">
-        <v>0.01176839871053302</v>
+        <v>0.01305123628542511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.862569363850737</v>
+        <v>0.9905496666666668</v>
       </c>
       <c r="H20">
-        <v>0.862569363850737</v>
+        <v>2.971649</v>
       </c>
       <c r="I20">
-        <v>0.2562799490642995</v>
+        <v>0.2455922776733764</v>
       </c>
       <c r="J20">
-        <v>0.2562799490642995</v>
+        <v>0.3034861213763108</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.3584300700524</v>
+        <v>17.140418</v>
       </c>
       <c r="N20">
-        <v>16.3584300700524</v>
+        <v>34.280836</v>
       </c>
       <c r="O20">
-        <v>0.3514433954657108</v>
+        <v>0.342078450107084</v>
       </c>
       <c r="P20">
-        <v>0.3514433954657108</v>
+        <v>0.2874037584536291</v>
       </c>
       <c r="Q20">
-        <v>14.11028061912187</v>
+        <v>16.97843533642734</v>
       </c>
       <c r="R20">
-        <v>14.11028061912187</v>
+        <v>101.870612018564</v>
       </c>
       <c r="S20">
-        <v>0.09006789548893683</v>
+        <v>0.08401182570477721</v>
       </c>
       <c r="T20">
-        <v>0.09006789548893683</v>
+        <v>0.08722305192206599</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.862569363850737</v>
+        <v>0.9905496666666668</v>
       </c>
       <c r="H21">
-        <v>0.862569363850737</v>
+        <v>2.971649</v>
       </c>
       <c r="I21">
-        <v>0.2562799490642995</v>
+        <v>0.2455922776733764</v>
       </c>
       <c r="J21">
-        <v>0.2562799490642995</v>
+        <v>0.3034861213763108</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.587003546638296</v>
+        <v>0.6751376666666666</v>
       </c>
       <c r="N21">
-        <v>0.587003546638296</v>
+        <v>2.025413</v>
       </c>
       <c r="O21">
-        <v>0.0126111441438779</v>
+        <v>0.01347400317905004</v>
       </c>
       <c r="P21">
-        <v>0.0126111441438779</v>
+        <v>0.01698066256671337</v>
       </c>
       <c r="Q21">
-        <v>0.5063312758019214</v>
+        <v>0.6687573906707778</v>
       </c>
       <c r="R21">
-        <v>0.5063312758019214</v>
+        <v>6.018816516037</v>
       </c>
       <c r="S21">
-        <v>0.003231983378835567</v>
+        <v>0.003309111130121212</v>
       </c>
       <c r="T21">
-        <v>0.003231983378835567</v>
+        <v>0.005153395420771752</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.862569363850737</v>
+        <v>0.9905496666666668</v>
       </c>
       <c r="H22">
-        <v>0.862569363850737</v>
+        <v>2.971649</v>
       </c>
       <c r="I22">
-        <v>0.2562799490642995</v>
+        <v>0.2455922776733764</v>
       </c>
       <c r="J22">
-        <v>0.2562799490642995</v>
+        <v>0.3034861213763108</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.94908614271655</v>
+        <v>0.962955</v>
       </c>
       <c r="N22">
-        <v>0.94908614271655</v>
+        <v>2.888865</v>
       </c>
       <c r="O22">
-        <v>0.02039010193260496</v>
+        <v>0.01921809339322221</v>
       </c>
       <c r="P22">
-        <v>0.02039010193260496</v>
+        <v>0.0242196736002921</v>
       </c>
       <c r="Q22">
-        <v>0.8186526303625643</v>
+        <v>0.9538547542650001</v>
       </c>
       <c r="R22">
-        <v>0.8186526303625643</v>
+        <v>8.584692788385</v>
       </c>
       <c r="S22">
-        <v>0.005225574284703874</v>
+        <v>0.00471981532898111</v>
       </c>
       <c r="T22">
-        <v>0.005225574284703874</v>
+        <v>0.00735033480195288</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.862569363850737</v>
+        <v>0.9905496666666668</v>
       </c>
       <c r="H23">
-        <v>0.862569363850737</v>
+        <v>2.971649</v>
       </c>
       <c r="I23">
-        <v>0.2562799490642995</v>
+        <v>0.2455922776733764</v>
       </c>
       <c r="J23">
-        <v>0.2562799490642995</v>
+        <v>0.3034861213763108</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.969703976268984</v>
+        <v>1.173277666666667</v>
       </c>
       <c r="N23">
-        <v>0.969703976268984</v>
+        <v>3.519833</v>
       </c>
       <c r="O23">
-        <v>0.02083305406186091</v>
+        <v>0.02341559031749338</v>
       </c>
       <c r="P23">
-        <v>0.02083305406186091</v>
+        <v>0.02950958469417469</v>
       </c>
       <c r="Q23">
-        <v>0.8364369419338676</v>
+        <v>1.162189801624111</v>
       </c>
       <c r="R23">
-        <v>0.8364369419338676</v>
+        <v>10.459708214617</v>
       </c>
       <c r="S23">
-        <v>0.005339094033827512</v>
+        <v>0.005750688159139858</v>
       </c>
       <c r="T23">
-        <v>0.005339094033827512</v>
+        <v>0.008955749402260823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.862569363850737</v>
+        <v>0.9905496666666668</v>
       </c>
       <c r="H24">
-        <v>0.862569363850737</v>
+        <v>2.971649</v>
       </c>
       <c r="I24">
-        <v>0.2562799490642995</v>
+        <v>0.2455922776733764</v>
       </c>
       <c r="J24">
-        <v>0.2562799490642995</v>
+        <v>0.3034861213763108</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.0641217186461</v>
+        <v>16.25287366666667</v>
       </c>
       <c r="N24">
-        <v>15.0641217186461</v>
+        <v>48.758621</v>
       </c>
       <c r="O24">
-        <v>0.3236365631566248</v>
+        <v>0.3243653587491024</v>
       </c>
       <c r="P24">
-        <v>0.3236365631566248</v>
+        <v>0.4087826484866369</v>
       </c>
       <c r="Q24">
-        <v>12.99384988782264</v>
+        <v>16.09927859289211</v>
       </c>
       <c r="R24">
-        <v>12.99384988782264</v>
+        <v>144.893507336029</v>
       </c>
       <c r="S24">
-        <v>0.08294156192112476</v>
+        <v>0.07966162725353391</v>
       </c>
       <c r="T24">
-        <v>0.08294156192112476</v>
+        <v>0.1240598604751453</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.971649</v>
+      </c>
+      <c r="I25">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J25">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.9020255</v>
+      </c>
+      <c r="N25">
+        <v>27.804051</v>
+      </c>
+      <c r="O25">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P25">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q25">
+        <v>13.7706467250165</v>
+      </c>
+      <c r="R25">
+        <v>82.623880350099</v>
+      </c>
+      <c r="S25">
+        <v>0.06813921009682307</v>
+      </c>
+      <c r="T25">
+        <v>0.07074372935411408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.3344835</v>
+      </c>
+      <c r="H26">
+        <v>0.668967</v>
+      </c>
+      <c r="I26">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J26">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.140418</v>
+      </c>
+      <c r="N26">
+        <v>34.280836</v>
+      </c>
+      <c r="O26">
+        <v>0.342078450107084</v>
+      </c>
+      <c r="P26">
+        <v>0.2874037584536291</v>
+      </c>
+      <c r="Q26">
+        <v>5.733187004103</v>
+      </c>
+      <c r="R26">
+        <v>22.932748016412</v>
+      </c>
+      <c r="S26">
+        <v>0.02836866282302234</v>
+      </c>
+      <c r="T26">
+        <v>0.01963534164874408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.3344835</v>
+      </c>
+      <c r="H27">
+        <v>0.668967</v>
+      </c>
+      <c r="I27">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J27">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6751376666666666</v>
+      </c>
+      <c r="N27">
+        <v>2.025413</v>
+      </c>
+      <c r="O27">
+        <v>0.01347400317905004</v>
+      </c>
+      <c r="P27">
+        <v>0.01698066256671337</v>
+      </c>
+      <c r="Q27">
+        <v>0.2258224097285</v>
+      </c>
+      <c r="R27">
+        <v>1.354934458371</v>
+      </c>
+      <c r="S27">
+        <v>0.001117402902588999</v>
+      </c>
+      <c r="T27">
+        <v>0.001160113955062464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="H25">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="I25">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="J25">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="N25">
-        <v>12.6180693627074</v>
-      </c>
-      <c r="O25">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="P25">
-        <v>0.2710857412393206</v>
-      </c>
-      <c r="Q25">
-        <v>10.883960063215</v>
-      </c>
-      <c r="R25">
-        <v>10.883960063215</v>
-      </c>
-      <c r="S25">
-        <v>0.06947383995687097</v>
-      </c>
-      <c r="T25">
-        <v>0.06947383995687097</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.3344835</v>
+      </c>
+      <c r="H28">
+        <v>0.668967</v>
+      </c>
+      <c r="I28">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J28">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.962955</v>
+      </c>
+      <c r="N28">
+        <v>2.888865</v>
+      </c>
+      <c r="O28">
+        <v>0.01921809339322221</v>
+      </c>
+      <c r="P28">
+        <v>0.0242196736002921</v>
+      </c>
+      <c r="Q28">
+        <v>0.3220925587425</v>
+      </c>
+      <c r="R28">
+        <v>1.932555352455</v>
+      </c>
+      <c r="S28">
+        <v>0.001593761932103609</v>
+      </c>
+      <c r="T28">
+        <v>0.001654681095061366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.3344835</v>
+      </c>
+      <c r="H29">
+        <v>0.668967</v>
+      </c>
+      <c r="I29">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J29">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.173277666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.519833</v>
+      </c>
+      <c r="O29">
+        <v>0.02341559031749338</v>
+      </c>
+      <c r="P29">
+        <v>0.02950958469417469</v>
+      </c>
+      <c r="Q29">
+        <v>0.3924420204185</v>
+      </c>
+      <c r="R29">
+        <v>2.354652122511</v>
+      </c>
+      <c r="S29">
+        <v>0.001941861541734225</v>
+      </c>
+      <c r="T29">
+        <v>0.002016086290938874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.3344835</v>
+      </c>
+      <c r="H30">
+        <v>0.668967</v>
+      </c>
+      <c r="I30">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J30">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>16.25287366666667</v>
+      </c>
+      <c r="N30">
+        <v>48.758621</v>
+      </c>
+      <c r="O30">
+        <v>0.3243653587491024</v>
+      </c>
+      <c r="P30">
+        <v>0.4087826484866369</v>
+      </c>
+      <c r="Q30">
+        <v>5.4363180690845</v>
+      </c>
+      <c r="R30">
+        <v>32.617908414507</v>
+      </c>
+      <c r="S30">
+        <v>0.02689971113626549</v>
+      </c>
+      <c r="T30">
+        <v>0.02792791230810789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.3344835</v>
+      </c>
+      <c r="H31">
+        <v>0.668967</v>
+      </c>
+      <c r="I31">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J31">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>13.9020255</v>
+      </c>
+      <c r="N31">
+        <v>27.804051</v>
+      </c>
+      <c r="O31">
+        <v>0.2774485042540479</v>
+      </c>
+      <c r="P31">
+        <v>0.2331036721985539</v>
+      </c>
+      <c r="Q31">
+        <v>4.649998146329249</v>
+      </c>
+      <c r="R31">
+        <v>18.599992585317</v>
+      </c>
+      <c r="S31">
+        <v>0.02300888309529899</v>
+      </c>
+      <c r="T31">
+        <v>0.01592557546158164</v>
       </c>
     </row>
   </sheetData>
